--- a/Kader/PFAS.xlsx
+++ b/Kader/PFAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\MR_APP\MR-App-Repo\Kader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C2F6C2-74AB-42D3-B795-5AD606254418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB185D-98C4-4FCC-BD95-0B53DE5FCF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,23 +433,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>9999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9999</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
@@ -465,10 +464,10 @@
         <v>1.9</v>
       </c>
       <c r="D3">
-        <v>9999</v>
+        <v>1.4</v>
       </c>
       <c r="E3">
-        <v>9999</v>
+        <v>1.4</v>
       </c>
       <c r="F3">
         <v>1.4</v>
@@ -485,10 +484,10 @@
         <v>1.9</v>
       </c>
       <c r="D4">
-        <v>9999</v>
+        <v>1.4</v>
       </c>
       <c r="E4">
-        <v>9999</v>
+        <v>1.4</v>
       </c>
       <c r="F4">
         <v>1.4</v>
@@ -505,10 +504,10 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>9999</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>9999</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -525,10 +524,10 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>9999</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>9999</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -545,10 +544,10 @@
         <v>0.1</v>
       </c>
       <c r="D7">
-        <v>9999</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
-        <v>9999</v>
+        <v>0.1</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -588,7 +587,7 @@
         <v>1.8</v>
       </c>
       <c r="E9">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
         <v>0.8</v>
@@ -628,7 +627,7 @@
         <v>1.8</v>
       </c>
       <c r="E11">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
         <v>0.8</v>
@@ -645,10 +644,10 @@
         <v>0.8</v>
       </c>
       <c r="D12">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="E12">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
         <v>0.8</v>
@@ -665,10 +664,10 @@
         <v>0.8</v>
       </c>
       <c r="D13">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="E13">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
         <v>0.8</v>
@@ -685,10 +684,10 @@
         <v>0.8</v>
       </c>
       <c r="D14">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="E14">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="F14">
         <v>0.8</v>
@@ -705,10 +704,10 @@
         <v>0.8</v>
       </c>
       <c r="D15">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="E15">
-        <v>9999</v>
+        <v>0.8</v>
       </c>
       <c r="F15">
         <v>0.8</v>
